--- a/iselUssSyncV2/OutputWSL/20220426_1352_D50L474W90Q20U0.32H80G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1352_D50L474W90Q20U0.32H80G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>81.541818181818186</v>
+        <v>81.542748948839147</v>
       </c>
       <c r="F2" s="0">
-        <v>81.41640316205536</v>
+        <v>81.417333929076307</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>82.01909090909092</v>
+        <v>82.02136611736438</v>
       </c>
       <c r="F3" s="0">
-        <v>83.048537549407115</v>
+        <v>83.050812757680575</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>81.249484126984143</v>
+        <v>81.252235060623889</v>
       </c>
       <c r="F4" s="0">
-        <v>84.953968253968256</v>
+        <v>84.956719187608016</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>80.583027888446196</v>
+        <v>80.585833978650157</v>
       </c>
       <c r="F5" s="0">
-        <v>85.461195219123525</v>
+        <v>85.464001309327443</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>79.174780876494069</v>
+        <v>79.17763522869167</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,7 +220,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>76.594087301587322</v>
+        <v>76.596983021208104</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -238,10 +238,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>72.456095617529897</v>
+        <v>72.459025810003311</v>
       </c>
       <c r="F8" s="0">
-        <v>82.192270916334664</v>
+        <v>82.195201108808106</v>
       </c>
     </row>
     <row r="9">
@@ -258,7 +258,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>70.026031746031734</v>
+        <v>70.028973797166486</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -276,10 +276,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>67.227450199203204</v>
+        <v>67.230403005867942</v>
       </c>
       <c r="F10" s="0">
-        <v>40.164860557768925</v>
+        <v>40.16781336443367</v>
       </c>
     </row>
     <row r="11">
@@ -296,10 +296,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>64.132709163346618</v>
+        <v>64.135671622410101</v>
       </c>
       <c r="F11" s="0">
-        <v>44.242709163346618</v>
+        <v>44.2456716224101</v>
       </c>
     </row>
     <row r="12">
@@ -316,10 +316,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>62.344325396825411</v>
+        <v>62.347292268414016</v>
       </c>
       <c r="F12" s="0">
-        <v>43.073809523809523</v>
+        <v>43.076776395398149</v>
       </c>
     </row>
     <row r="13">
@@ -336,10 +336,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>60.807928286852594</v>
+        <v>60.810899295183518</v>
       </c>
       <c r="F13" s="0">
-        <v>43.344940239043829</v>
+        <v>43.347911247374775</v>
       </c>
     </row>
     <row r="14">
@@ -356,10 +356,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>59.242738095238074</v>
+        <v>59.245712964528529</v>
       </c>
       <c r="F14" s="0">
-        <v>43.941944444444445</v>
+        <v>43.944919313734879</v>
       </c>
     </row>
     <row r="15">
@@ -376,10 +376,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>57.646215139442234</v>
+        <v>57.64919359390931</v>
       </c>
       <c r="F15" s="0">
-        <v>44.880159362549797</v>
+        <v>44.883137817016902</v>
       </c>
     </row>
     <row r="16">
@@ -396,10 +396,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>54.975059760956157</v>
+        <v>54.978044558428145</v>
       </c>
       <c r="F16" s="0">
-        <v>48.20681274900398</v>
+        <v>48.209797546475968</v>
       </c>
     </row>
     <row r="17">
@@ -416,10 +416,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>52.41374501992032</v>
+        <v>52.41673505726591</v>
       </c>
       <c r="F17" s="0">
-        <v>52.406494023904386</v>
+        <v>52.409484061249977</v>
       </c>
     </row>
     <row r="18">
@@ -436,10 +436,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>50.044841269841264</v>
+        <v>50.047835443929188</v>
       </c>
       <c r="F18" s="0">
-        <v>54.772777777777776</v>
+        <v>54.775771951865693</v>
       </c>
     </row>
     <row r="19">
@@ -456,10 +456,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>47.126852589641437</v>
+        <v>47.129851727820132</v>
       </c>
       <c r="F19" s="0">
-        <v>56.913306772908363</v>
+        <v>56.916305911087058</v>
       </c>
     </row>
     <row r="20">
@@ -476,10 +476,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>54.088095238095235</v>
+        <v>54.091094376273929</v>
       </c>
       <c r="F20" s="0">
-        <v>58.422619047619058</v>
+        <v>58.425618185797738</v>
       </c>
     </row>
     <row r="21">
@@ -496,10 +496,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>56.7815139442231</v>
+        <v>56.784506187831276</v>
       </c>
       <c r="F21" s="0">
-        <v>59.01454183266933</v>
+        <v>59.017534076277485</v>
       </c>
     </row>
     <row r="22">
@@ -516,10 +516,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>58.996626984126991</v>
+        <v>58.999605438594088</v>
       </c>
       <c r="F22" s="0">
-        <v>59.121230158730157</v>
+        <v>59.124208613197261</v>
       </c>
     </row>
     <row r="23">
@@ -536,10 +536,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>62.918366533864557</v>
+        <v>62.921324304620086</v>
       </c>
       <c r="F23" s="0">
-        <v>59.213107569721132</v>
+        <v>59.216065340476661</v>
       </c>
     </row>
     <row r="24">
@@ -556,10 +556,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>55.483650793650803</v>
+        <v>55.486546513271591</v>
       </c>
       <c r="F24" s="0">
-        <v>59.525198412698423</v>
+        <v>59.528094132319204</v>
       </c>
     </row>
     <row r="25">
@@ -576,10 +576,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>55.800637450199176</v>
+        <v>55.803443540403173</v>
       </c>
       <c r="F25" s="0">
-        <v>59.937928286852596</v>
+        <v>59.940734377056543</v>
       </c>
     </row>
     <row r="26">
@@ -596,10 +596,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>61.316175298804779</v>
+        <v>61.318864181309806</v>
       </c>
       <c r="F26" s="0">
-        <v>59.276852589641436</v>
+        <v>59.279541472146462</v>
       </c>
     </row>
     <row r="27">
@@ -616,10 +616,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>57.544960317460308</v>
+        <v>57.547504413984321</v>
       </c>
       <c r="F27" s="0">
-        <v>59.294920634920643</v>
+        <v>59.297464731444613</v>
       </c>
     </row>
     <row r="28">
@@ -636,10 +636,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>55.12195219123506</v>
+        <v>55.124323923495908</v>
       </c>
       <c r="F28" s="0">
-        <v>59.037011952191236</v>
+        <v>59.039383684452076</v>
       </c>
     </row>
     <row r="29">
@@ -656,10 +656,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>60.029563492063495</v>
+        <v>60.031735281779078</v>
       </c>
       <c r="F29" s="0">
-        <v>58.909801587301587</v>
+        <v>58.911973377017191</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +676,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>56.015537848605575</v>
+        <v>56.017227018384368</v>
       </c>
       <c r="F30" s="0">
-        <v>58.360996015936273</v>
+        <v>58.362685185715065</v>
       </c>
     </row>
   </sheetData>
